--- a/data/trans_camb/P07_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P07_R-Estudios-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-1.798185002995512</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>4.578093401407007</v>
+        <v>4.578093401407002</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.763378846507253</v>
+        <v>-1.372410086469534</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.323389224731855</v>
+        <v>-3.711230971168614</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6588356308776772</v>
+        <v>1.417129348763996</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.938525827976061</v>
+        <v>-7.151605747223787</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-8.151959104550995</v>
+        <v>-8.359555713146841</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.243884948435243</v>
+        <v>-0.8069093194128839</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-3.076833979350975</v>
+        <v>-3.225277552606927</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-5.194015819498133</v>
+        <v>-4.723591502334699</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.414560138338587</v>
+        <v>1.437674886529141</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.000761564863865</v>
+        <v>7.582508974294792</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.192395643580613</v>
+        <v>5.379460671532303</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.40881349255157</v>
+        <v>10.876922451467</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.135006689331642</v>
+        <v>0.948220646074545</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.375541329416794</v>
+        <v>0.3042649483285463</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.714762202292887</v>
+        <v>6.622131031088423</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.752484129031802</v>
+        <v>2.715386242154931</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.139310600639845</v>
+        <v>1.43109296227121</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>7.487033640623272</v>
+        <v>7.744787864481051</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.04288123157153783</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.1091735738952513</v>
+        <v>0.1091735738952512</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.0516442536794909</v>
+        <v>-0.04039399969367916</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.09876167280953738</v>
+        <v>-0.1074406126877948</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.01812047087327869</v>
+        <v>0.03949242873980611</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1351680019148473</v>
+        <v>-0.1384138568283654</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1592698613819656</v>
+        <v>-0.1638447743888563</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.02350065697681215</v>
+        <v>-0.0169402650126464</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.07135813003021181</v>
+        <v>-0.07504458257821554</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1190047092139168</v>
+        <v>-0.1095876274965174</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.03353023593098505</v>
+        <v>0.03297504764698068</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2281925227885719</v>
+        <v>0.2517955680404323</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1741036052566256</v>
+        <v>0.1712916772441413</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.3414810869510256</v>
+        <v>0.3574375562349881</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.02322542298282999</v>
+        <v>0.01986366803952043</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.007229897838158937</v>
+        <v>0.007781732130278492</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1429066028734711</v>
+        <v>0.1374096501768167</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06701440731567819</v>
+        <v>0.06694524976010496</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.02938910032251132</v>
+        <v>0.03593018524377652</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.1865921075397807</v>
+        <v>0.1924874012034032</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>1.429431478100451</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>2.444219514384957</v>
+        <v>2.444219514384951</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>1.341791618053542</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2859616499483514</v>
+        <v>0.1718115591610591</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.018426611649613</v>
+        <v>2.186462282984698</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.255640557737554</v>
+        <v>4.282043848981198</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.837632351956573</v>
+        <v>-1.958209642542654</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.173153670027303</v>
+        <v>-1.008688654025052</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1162644904319631</v>
+        <v>0.08628080525155338</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.2895760688953076</v>
+        <v>-0.1734114060005222</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.323374101368428</v>
+        <v>1.307181942390018</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>3.063166579962231</v>
+        <v>2.921601238751253</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.107819095129564</v>
+        <v>4.203156624842822</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.201207741205841</v>
+        <v>6.355284163860561</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.340850738902409</v>
+        <v>8.233643705128111</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.274632027089831</v>
+        <v>3.302780399125191</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.017959206458851</v>
+        <v>3.86350514441822</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.80440771405248</v>
+        <v>4.873987127879468</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.089899931296176</v>
+        <v>3.05878491262363</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>4.507942696428387</v>
+        <v>4.388290995933182</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>6.171343707954443</v>
+        <v>5.996570559909585</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.09171093400570028</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1568187478822619</v>
+        <v>0.1568187478822615</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.1152706126678162</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.02571016395973104</v>
+        <v>0.0100120911810823</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.2297484643214506</v>
+        <v>0.230242569220734</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.4752970225891976</v>
+        <v>0.4883481913720762</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1116797370599986</v>
+        <v>-0.1155003243330047</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.06870488870892051</v>
+        <v>-0.05829880690987089</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01224036775898494</v>
+        <v>0.004529281774545065</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.02131379278003748</v>
+        <v>-0.01435826799813257</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1062963135787677</v>
+        <v>0.1034896902506773</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.2433736058542836</v>
+        <v>0.2328311929639285</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.6216705504126508</v>
+        <v>0.6050443845062342</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.9105412294905546</v>
+        <v>0.8950454363816925</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.186654520426446</v>
+        <v>1.202727087699575</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2269632455454139</v>
+        <v>0.2350072350288794</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2805075856007429</v>
+        <v>0.2722877786006423</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3442150507773045</v>
+        <v>0.344197708476104</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2933068565687239</v>
+        <v>0.2860843814947095</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4210404862153707</v>
+        <v>0.4000919928819101</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.5661328240334847</v>
+        <v>0.5594680556710537</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-2.612622228133143</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2.096750521828046</v>
+        <v>2.096750521828045</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-6.578846346223489</v>
@@ -1083,7 +1083,7 @@
         <v>-4.298645693845532</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-2.998741726811692</v>
+        <v>-2.998741726811691</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-4.206171580681663</v>
@@ -1092,7 +1092,7 @@
         <v>-3.231255149623558</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-0.2281272856048414</v>
+        <v>-0.2281272856048427</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.955841995390173</v>
+        <v>-5.70575453811242</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.120150806747383</v>
+        <v>-6.075846086176942</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.052493712913436</v>
+        <v>-1.292674681064374</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-10.69063486684096</v>
+        <v>-11.14820579172823</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-8.754991202911825</v>
+        <v>-8.576031706835579</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-7.027345773561835</v>
+        <v>-7.126333673737038</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-7.025587251344412</v>
+        <v>-6.847901237017682</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-6.019486678370388</v>
+        <v>-6.17115866036551</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-2.767397645881069</v>
+        <v>-2.873073968047708</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.370480952181165</v>
+        <v>1.355858169280705</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8128163274692679</v>
+        <v>0.5211222166498737</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.809841565724939</v>
+        <v>5.647682903311015</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-2.252649468742333</v>
+        <v>-2.834927278068057</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-0.1478695225549163</v>
+        <v>-0.04521228476142598</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4945713958381561</v>
+        <v>0.9885333726273734</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-1.36466073093434</v>
+        <v>-1.264556637312401</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-0.616855640984409</v>
+        <v>-0.6476699660885598</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.164113453464262</v>
+        <v>2.463234937840872</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.3123832077029082</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.2507020137501534</v>
+        <v>0.2507020137501532</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.4604092496152225</v>
@@ -1188,7 +1188,7 @@
         <v>-0.3008333276245658</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.2098617835973283</v>
+        <v>-0.2098617835973282</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.3785886396196629</v>
@@ -1197,7 +1197,7 @@
         <v>-0.2908384662619397</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.02053325620712469</v>
+        <v>-0.02053325620712481</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5970568928567824</v>
+        <v>-0.5708008067496093</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5889162796045219</v>
+        <v>-0.5777975658763491</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.113845047739888</v>
+        <v>-0.1226927848851626</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.6555827563396063</v>
+        <v>-0.6538667484706452</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5195383579263005</v>
+        <v>-0.5135218172120291</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4101219151111198</v>
+        <v>-0.4123704359595581</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.5516445249639171</v>
+        <v>-0.5436270618117742</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4793248510973143</v>
+        <v>-0.4815732289925024</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2217963792774909</v>
+        <v>-0.2266250399773764</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2160696561420054</v>
+        <v>0.2438364398651106</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1328023878218359</v>
+        <v>0.09597662123506503</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.9087095277483616</v>
+        <v>0.8725808597983028</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.1894724299402605</v>
+        <v>-0.2158226514624167</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.007920108643744353</v>
+        <v>-0.0014577757654675</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04148918045768994</v>
+        <v>0.08982268540607702</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.119606388529298</v>
+        <v>-0.1243229017635294</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.06912454861732815</v>
+        <v>-0.06849103645469889</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.2246284920886757</v>
+        <v>0.2512371651621026</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>0.1296253887585613</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1.750405230523466</v>
+        <v>1.750405230523472</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-1.979782954551929</v>
@@ -1297,7 +1297,7 @@
         <v>-4.704367709832183</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-4.323266493984396</v>
+        <v>-4.32326649398439</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-0.4890728093201985</v>
@@ -1306,7 +1306,7 @@
         <v>-2.297536888393128</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-1.28860917689462</v>
+        <v>-1.288609176894617</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.7890848406185317</v>
+        <v>-0.8822893008300917</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.760849255957806</v>
+        <v>-1.53434986558132</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02607317323005813</v>
+        <v>0.08073374580243614</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.088422433298261</v>
+        <v>-4.292943080692903</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-6.85507327616306</v>
+        <v>-6.850169118853519</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-6.282002924261182</v>
+        <v>-6.264656333622651</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.994940643476664</v>
+        <v>-2.029434726702749</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-3.803616210122039</v>
+        <v>-3.682017367403795</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-2.707478050921107</v>
+        <v>-2.707743411472899</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.873730023688058</v>
+        <v>3.070210254856189</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.848899160810666</v>
+        <v>1.991527671330799</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.584708959319877</v>
+        <v>3.668588465084385</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2512076972028217</v>
+        <v>-0.02931753310971077</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-2.664813497325734</v>
+        <v>-2.573581328070357</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-2.383328946055165</v>
+        <v>-2.369757723336301</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9759993712200257</v>
+        <v>0.954810174367887</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.8946326992949406</v>
+        <v>-0.9038354472666117</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-0.02453046131534041</v>
+        <v>-0.093160883831473</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.008286033654822977</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.1118910175591483</v>
+        <v>0.1118910175591487</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.06913290372221582</v>
@@ -1402,7 +1402,7 @@
         <v>-0.164273866087172</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.150966026658083</v>
+        <v>-0.1509660266580828</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.02198883426749998</v>
@@ -1411,7 +1411,7 @@
         <v>-0.1032978258034139</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.05793618677288659</v>
+        <v>-0.05793618677288646</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.04707135435853464</v>
+        <v>-0.05198638479710157</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1055902664719812</v>
+        <v>-0.09296596218228635</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.002197915717669493</v>
+        <v>0.005436485297849444</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.136750215944584</v>
+        <v>-0.145556348790874</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2311939682633924</v>
+        <v>-0.23017729822159</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2116625472470731</v>
+        <v>-0.2080402762807337</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.08712864681516189</v>
+        <v>-0.087752621303593</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1644869557703781</v>
+        <v>-0.1604372814512518</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1166477200431565</v>
+        <v>-0.1149468807761321</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1953595297233669</v>
+        <v>0.2058911405241097</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1271892303667914</v>
+        <v>0.1337364175230384</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.2445500966065368</v>
+        <v>0.2468598166572812</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.009154595288928633</v>
+        <v>-0.001027783282358909</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.09617488001158793</v>
+        <v>-0.09493958035650721</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.08681641933500424</v>
+        <v>-0.08522226478211777</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.0450316321897858</v>
+        <v>0.04434723033747611</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.04208140348136196</v>
+        <v>-0.04175786052004699</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.001304279773980625</v>
+        <v>-0.002959856568499759</v>
       </c>
     </row>
     <row r="28">
